--- a/results/mop/pareto_under_cap.xlsx
+++ b/results/mop/pareto_under_cap.xlsx
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="Sheet4" sheetId="6" r:id="rId1"/>
     <sheet name="res_under_cap1_changes" sheetId="4" r:id="rId2"/>
-    <sheet name="rs_under_cap2" sheetId="3" r:id="rId3"/>
-    <sheet name="res_under_cap3" sheetId="1" r:id="rId4"/>
-    <sheet name="rs_under_cap4" sheetId="2" r:id="rId5"/>
+    <sheet name="res_under_cap2_changes" sheetId="3" r:id="rId3"/>
+    <sheet name="res_under_cap3_changes" sheetId="1" r:id="rId4"/>
+    <sheet name="res_under_cap4_changes" sheetId="2" r:id="rId5"/>
     <sheet name="res_under_cap5_changes" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="54">
   <si>
     <t>alpha</t>
   </si>
@@ -150,6 +150,42 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>INDIRECT(""&amp;C$1&amp;"!"&amp;$A5)</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>B53</t>
+  </si>
+  <si>
+    <t>B78</t>
+  </si>
+  <si>
+    <t>AN28</t>
+  </si>
+  <si>
+    <t>AN78</t>
+  </si>
+  <si>
+    <t>An53</t>
+  </si>
+  <si>
+    <t>precision</t>
   </si>
 </sst>
 </file>
@@ -735,7 +771,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="19000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1386,11 +1436,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>rs_under_cap2!$AM$3:$AM$103</c:f>
+              <c:f>res_under_cap2_changes!$AM$3:$AM$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1702,7 +1764,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>rs_under_cap2!$AN$3:$AN$103</c:f>
+              <c:f>res_under_cap2_changes!$AN$3:$AN$103</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2037,11 +2099,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>res_under_cap3!$AM$3:$AM$103</c:f>
+              <c:f>res_under_cap3_changes!$AM$3:$AM$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2353,7 +2427,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>res_under_cap3!$AN$3:$AN$103</c:f>
+              <c:f>res_under_cap3_changes!$AN$3:$AN$103</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2693,7 +2767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>rs_under_cap4!$AM$3:$AM$103</c:f>
+              <c:f>res_under_cap4_changes!$AM$3:$AM$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3005,7 +3079,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>rs_under_cap4!$AN$3:$AN$103</c:f>
+              <c:f>res_under_cap4_changes!$AN$3:$AN$103</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3340,7 +3414,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3970,6 +4056,79 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FF0A-46C7-8E70-7CE8E3DCABB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Alpha 1 change</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>110.55461592151499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.55461592151499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.55461592151499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1820346890017123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1820346890017123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1820346890017123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6083-4136-9083-DBA6AF5D6808}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4858,16 +5017,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571498</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114423</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5152,14 +5311,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D1" t="str">
+        <f>CONCATENATE("res_under_cap",D2,"_changes")</f>
+        <v>res_under_cap1_changes</v>
+      </c>
+      <c r="F1" t="str">
+        <f>CONCATENATE("res_under_cap",F2,"_changes")</f>
+        <v>res_under_cap2_changes</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("res_under_cap",H2,"_changes")</f>
+        <v>res_under_cap3_changes</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE("res_under_cap",J2,"_changes")</f>
+        <v>res_under_cap4_changes</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("res_under_cap",L2,"_changes")</f>
+        <v>res_under_cap5_changes</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A4)</f>
+        <v>110.55461592151499</v>
+      </c>
+      <c r="E4">
+        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$B4)</f>
+        <v>0.1820346890017123</v>
+      </c>
+      <c r="F4">
+        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A4)</f>
+        <v>102.726272181525</v>
+      </c>
+      <c r="G4">
+        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$B4)</f>
+        <v>0.4873705243221001</v>
+      </c>
+      <c r="H4">
+        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A4)</f>
+        <v>93.776926387355203</v>
+      </c>
+      <c r="I4">
+        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B4)</f>
+        <v>0.64769870220316972</v>
+      </c>
+      <c r="J4">
+        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A4)</f>
+        <v>84.090477882262704</v>
+      </c>
+      <c r="K4">
+        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$B4)</f>
+        <v>0.72988512123452642</v>
+      </c>
+      <c r="L4">
+        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A4)</f>
+        <v>82.333788986335506</v>
+      </c>
+      <c r="M4">
+        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$B4)</f>
+        <v>0.73695148812758826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A5)</f>
+        <v>110.55461592151499</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:G6" ca="1" si="0">INDIRECT(""&amp;D$1&amp;"!"&amp;$B5)</f>
+        <v>0.1820346890017123</v>
+      </c>
+      <c r="F5">
+        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A5)</f>
+        <v>102.726272181525</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4873705243221001</v>
+      </c>
+      <c r="H5">
+        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A5)</f>
+        <v>93.394865286376501</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5" ca="1" si="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$B5)</f>
+        <v>0.64769870220317005</v>
+      </c>
+      <c r="J5">
+        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A5)</f>
+        <v>83.933888525229904</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5" ca="1" si="2">INDIRECT(""&amp;J$1&amp;"!"&amp;$B5)</f>
+        <v>0.72988512123452642</v>
+      </c>
+      <c r="L5">
+        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A5)</f>
+        <v>82.190945936805505</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5" ca="1" si="3">INDIRECT(""&amp;L$1&amp;"!"&amp;$B5)</f>
+        <v>0.73695148812758826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <f ca="1">INDIRECT(""&amp;D$1&amp;"!"&amp;$A6)</f>
+        <v>110.55461592151499</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1820346890017123</v>
+      </c>
+      <c r="F6">
+        <f ca="1">INDIRECT(""&amp;F$1&amp;"!"&amp;$A6)</f>
+        <v>97.991347348280897</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48737052432210026</v>
+      </c>
+      <c r="H6">
+        <f ca="1">INDIRECT(""&amp;H$1&amp;"!"&amp;$A6)</f>
+        <v>93.855369660119095</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6" ca="1" si="4">INDIRECT(""&amp;H$1&amp;"!"&amp;$B6)</f>
+        <v>0.64769870220316972</v>
+      </c>
+      <c r="J6">
+        <f ca="1">INDIRECT(""&amp;J$1&amp;"!"&amp;$A6)</f>
+        <v>97.294873860793402</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6" ca="1" si="5">INDIRECT(""&amp;J$1&amp;"!"&amp;$B6)</f>
+        <v>0.67259041525025909</v>
+      </c>
+      <c r="L6">
+        <f ca="1">INDIRECT(""&amp;L$1&amp;"!"&amp;$A6)</f>
+        <v>97.781788598012795</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6" ca="1" si="6">INDIRECT(""&amp;L$1&amp;"!"&amp;$B6)</f>
+        <v>0.66144859486543628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>res_under_cap1_changes!A28</f>
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5169,8 +5575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO103"/>
   <sheetViews>
-    <sheetView topLeftCell="N13" workbookViewId="0">
-      <selection activeCell="AL104" sqref="AL104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,7 +5957,7 @@
         <v>110.55461592151499</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" ref="AN3:AN66" si="2">(MAX($AO:$AO)-AO4)/MAX($AO:$AO)</f>
+        <f t="shared" ref="AN4:AN66" si="2">(MAX($AO:$AO)-AO4)/MAX($AO:$AO)</f>
         <v>0.1820346890017123</v>
       </c>
       <c r="AO4">
@@ -18240,8 +18646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO103"/>
   <sheetViews>
-    <sheetView topLeftCell="N60" workbookViewId="0">
-      <selection activeCell="AI101" sqref="AI101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
